--- a/app/tables/household/forms/household_new/household_new.xlsx
+++ b/app/tables/household/forms/household_new/household_new.xlsx
@@ -1,17 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23515"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22202"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15980" activeTab="4"/>
+    <workbookView xWindow="1160" yWindow="0" windowWidth="23160" windowHeight="14700" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
     <sheet name="choices" sheetId="3" r:id="rId2"/>
     <sheet name="settings" sheetId="4" r:id="rId3"/>
-    <sheet name="model" sheetId="5" r:id="rId4"/>
-    <sheet name="queries" sheetId="6" r:id="rId5"/>
+    <sheet name="queries" sheetId="6" r:id="rId4"/>
+    <sheet name="household" sheetId="7" r:id="rId5"/>
+    <sheet name="members" sheetId="8" r:id="rId6"/>
+    <sheet name="education" sheetId="9" r:id="rId7"/>
   </sheets>
   <calcPr calcId="125725" concurrentCalc="0"/>
   <extLst>
@@ -23,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="83">
   <si>
     <t>type</t>
   </si>
@@ -52,15 +54,6 @@
     <t>no</t>
   </si>
   <si>
-    <t>sexes</t>
-  </si>
-  <si>
-    <t>male</t>
-  </si>
-  <si>
-    <t>female</t>
-  </si>
-  <si>
     <t>value</t>
   </si>
   <si>
@@ -70,9 +63,6 @@
     <t>form_version</t>
   </si>
   <si>
-    <t>Household members:</t>
-  </si>
-  <si>
     <t>Capture the household location.</t>
   </si>
   <si>
@@ -106,216 +96,191 @@
     <t>table_id</t>
   </si>
   <si>
+    <t>household_id</t>
+  </si>
+  <si>
+    <t>Unique barcode ID or locator designation for this household</t>
+  </si>
+  <si>
+    <t>comments</t>
+  </si>
+  <si>
+    <t>values_list</t>
+  </si>
+  <si>
+    <t>select_one</t>
+  </si>
+  <si>
+    <t>choice_list_name</t>
+  </si>
+  <si>
+    <t>data_value</t>
+  </si>
+  <si>
+    <t>display.image</t>
+  </si>
+  <si>
+    <t>display.text</t>
+  </si>
+  <si>
+    <t>survey</t>
+  </si>
+  <si>
+    <t>Household Survey</t>
+  </si>
+  <si>
+    <t>setting_name</t>
+  </si>
+  <si>
+    <t>display.hint</t>
+  </si>
+  <si>
+    <t>display.title</t>
+  </si>
+  <si>
+    <t>linked_table</t>
+  </si>
+  <si>
+    <t>linked_form_id</t>
+  </si>
+  <si>
+    <t>selection</t>
+  </si>
+  <si>
+    <t>selectionArgs</t>
+  </si>
+  <si>
+    <t>household_new</t>
+  </si>
+  <si>
+    <t>household_id = ?</t>
+  </si>
+  <si>
+    <t>[ data('household_id') ]</t>
+  </si>
+  <si>
+    <t>auxillaryHash</t>
+  </si>
+  <si>
+    <t>'household_id='+escape(data('household_id'))</t>
+  </si>
+  <si>
+    <t>hideInContents</t>
+  </si>
+  <si>
+    <t>query_name</t>
+  </si>
+  <si>
+    <t>query_type</t>
+  </si>
+  <si>
+    <t>linked_table_id</t>
+  </si>
+  <si>
+    <t>select_linked_data</t>
+  </si>
+  <si>
+    <t>Who are the two youngest members of the household?</t>
+  </si>
+  <si>
+    <t>youngest</t>
+  </si>
+  <si>
+    <t>clause</t>
+  </si>
+  <si>
+    <t>condition</t>
+  </si>
+  <si>
+    <t>do section household</t>
+  </si>
+  <si>
+    <t>do section members</t>
+  </si>
+  <si>
+    <t>do section education</t>
+  </si>
+  <si>
+    <t>display.hide_add_instance</t>
+  </si>
+  <si>
+    <t>display.new_instance_text</t>
+  </si>
+  <si>
+    <t>display.hide_delete_button</t>
+  </si>
+  <si>
+    <t>note</t>
+  </si>
+  <si>
+    <t>Make a list of all individuals who normally live in this household</t>
+  </si>
+  <si>
+    <t>Add House Member</t>
+  </si>
+  <si>
+    <t>TRUE</t>
+  </si>
+  <si>
+    <t>instance_name</t>
+  </si>
+  <si>
+    <t>Household</t>
+  </si>
+  <si>
+    <t>Household Members</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>members</t>
+  </si>
+  <si>
+    <t>education</t>
+  </si>
+  <si>
+    <t>Education:</t>
+  </si>
+  <si>
     <t>household_member</t>
   </si>
   <si>
-    <t>string</t>
-  </si>
-  <si>
-    <t>household_id</t>
-  </si>
-  <si>
-    <t>Unique barcode ID or locator designation for this household</t>
-  </si>
-  <si>
-    <t>comments</t>
-  </si>
-  <si>
-    <t>values_list</t>
-  </si>
-  <si>
-    <t>select_one</t>
-  </si>
-  <si>
-    <t>choice_list_name</t>
-  </si>
-  <si>
-    <t>data_value</t>
-  </si>
-  <si>
-    <t>display.image</t>
-  </si>
-  <si>
-    <t>display.text</t>
-  </si>
-  <si>
-    <t>survey</t>
-  </si>
-  <si>
-    <t>Household Survey</t>
-  </si>
-  <si>
-    <t>setting_name</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">This inserts a 'joins' entry into the column_definitions table for the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>household_id</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve"> column of the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>household</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve"> table_id of the form: 
-"[ { table_id: household_member, element_name: household_id } ]"
-</t>
-    </r>
-  </si>
-  <si>
-    <t>display.hint</t>
-  </si>
-  <si>
-    <t>joins[0].table_id</t>
-  </si>
-  <si>
-    <t>joins[0].element_name</t>
-  </si>
-  <si>
-    <t>display.title</t>
-  </si>
-  <si>
-    <t>linked_table</t>
-  </si>
-  <si>
-    <t>linked_form_id</t>
-  </si>
-  <si>
-    <t>selection</t>
-  </si>
-  <si>
-    <t>selectionArgs</t>
-  </si>
-  <si>
-    <t>household_new</t>
-  </si>
-  <si>
-    <t>household_id = ?</t>
-  </si>
-  <si>
-    <t>[ data('household_id') ]</t>
-  </si>
-  <si>
-    <t>auxillaryHash</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>auxillaryHash</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve"> defines the auxillary hash to supply when creating a new sub-form. This is an ampersand-separated list of elementName=value pairs that will be used to initialize the subform. The </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>joined_through_name</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve"> value identifies the name (elementName) in the model that should be used when scanning in the joins lists for the table_id to discover the foreign key column to filter on in the subform.
-If this is omitted, we would probably just scan the entire model to see if table_id appears anywhere and use the first match we find. </t>
-    </r>
-  </si>
-  <si>
-    <t>'household_id='+escape(data('household_id'))</t>
-  </si>
-  <si>
-    <t>listing of linked forms displays the value of the field specified in the linekd form's instance_name setting field within a button. Click that button to edit that linked form.</t>
-  </si>
-  <si>
-    <t>hideInContents</t>
-  </si>
-  <si>
-    <t>query_name</t>
-  </si>
-  <si>
-    <t>query_type</t>
-  </si>
-  <si>
-    <t>uri</t>
-  </si>
-  <si>
-    <t>callback</t>
-  </si>
-  <si>
-    <t>linked_table_id</t>
-  </si>
-  <si>
-    <t>orderBy</t>
-  </si>
-  <si>
-    <t>linked_data</t>
-  </si>
-  <si>
-    <t>household_members</t>
-  </si>
-  <si>
-    <t>select_linked_data</t>
+    <t>member</t>
+  </si>
+  <si>
+    <t>linked_members</t>
+  </si>
+  <si>
+    <t>linked_members_education</t>
   </si>
   <si>
     <t>select_multiple</t>
   </si>
   <si>
-    <t>Who are the two youngest members of the household?</t>
-  </si>
-  <si>
-    <t>youngest</t>
+    <t>household_id = ? and age &gt;= ?</t>
+  </si>
+  <si>
+    <t>[ data('household_id'), '5' ]</t>
+  </si>
+  <si>
+    <t>Household Members Section:</t>
+  </si>
+  <si>
+    <t>This section is used to gather information about all household members.</t>
+  </si>
+  <si>
+    <t>This section is used to gather education information on the relevant household members.</t>
+  </si>
+  <si>
+    <t>Questions are asked to members of the household who are at least 5 years old.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -325,19 +290,6 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <u/>
@@ -369,43 +321,81 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="26">
+  <cellStyleXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -414,17 +404,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="26">
+  <cellStyles count="68">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
@@ -437,6 +440,27 @@
     <cellStyle name="Followed Hyperlink" xfId="21" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="23" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="25" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="27" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="29" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="31" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="33" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="35" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="37" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="39" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="41" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="43" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="45" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="47" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="49" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="51" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="53" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="55" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="57" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="59" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="61" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="63" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="65" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="67" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
@@ -449,6 +473,27 @@
     <cellStyle name="Hyperlink" xfId="20" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="22" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="24" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="26" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="28" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="30" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="32" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="34" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="36" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="38" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="40" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="42" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="44" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="46" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="50" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="52" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="54" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="56" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="58" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="60" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="62" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="64" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="66" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
@@ -749,156 +794,100 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="17.5" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="3" max="3" width="17.5" customWidth="1"/>
-    <col min="4" max="4" width="51.6640625" customWidth="1"/>
-    <col min="5" max="5" width="38" customWidth="1"/>
-    <col min="6" max="6" width="31.33203125" customWidth="1"/>
-    <col min="7" max="7" width="12.83203125" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" customWidth="1"/>
+    <col min="2" max="2" width="17.5" customWidth="1"/>
+    <col min="3" max="3" width="51.6640625" customWidth="1"/>
+    <col min="4" max="4" width="38" customWidth="1"/>
+    <col min="5" max="5" width="31.33203125" customWidth="1"/>
+    <col min="6" max="6" width="12.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="12">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:12" s="11" customFormat="1" ht="12">
+      <c r="A1" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="F1" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+    </row>
+    <row r="2" spans="1:12" s="8" customFormat="1" ht="12">
+      <c r="A2" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+    </row>
+    <row r="3" spans="1:12" s="8" customFormat="1" ht="12">
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+    </row>
+    <row r="4" spans="1:12" s="8" customFormat="1" ht="12">
+      <c r="A4" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+    </row>
+    <row r="5" spans="1:12" s="8" customFormat="1" ht="12">
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+    </row>
+    <row r="6" spans="1:12" s="8" customFormat="1" ht="12">
+      <c r="A6" s="8" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="17.5" customHeight="1">
-      <c r="A2" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="E2" s="1"/>
-    </row>
-    <row r="3" spans="1:7" ht="12.75" customHeight="1">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="12.75" customHeight="1">
-      <c r="A4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="12.75" customHeight="1">
-      <c r="A5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="12">
-      <c r="A6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="220.5" customHeight="1">
-      <c r="A7" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B7" t="s">
-        <v>64</v>
-      </c>
-      <c r="C7" t="s">
-        <v>65</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" t="s">
-        <v>56</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="12">
-      <c r="A8" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B8" t="s">
-        <v>66</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" s="1"/>
-    </row>
-    <row r="9" spans="1:7" ht="18" customHeight="1">
-      <c r="A9" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="B9" t="s">
-        <v>66</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="D9" t="s">
-        <v>68</v>
-      </c>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+    </row>
+    <row r="7" spans="1:12" s="6" customFormat="1" ht="12">
+      <c r="H7"/>
+      <c r="I7"/>
+      <c r="J7"/>
+      <c r="K7"/>
+      <c r="L7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -913,9 +902,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:C10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
@@ -926,16 +917,16 @@
   <sheetData>
     <row r="1" spans="1:4" ht="12.75" customHeight="1">
       <c r="A1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="12.75" customHeight="1">
@@ -958,28 +949,6 @@
       </c>
       <c r="C3" s="1" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -994,10 +963,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="A9" sqref="A9:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0"/>
@@ -1008,27 +977,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="18" customHeight="1">
-      <c r="A1" s="7" t="s">
-        <v>40</v>
+      <c r="A1" s="5" t="s">
+        <v>34</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C1" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="18" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>50</v>
+        <v>10</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="18" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B3" s="1">
         <v>20130408</v>
@@ -1036,23 +1005,55 @@
     </row>
     <row r="4" spans="1:3" ht="18" customHeight="1">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="18" customHeight="1">
-      <c r="A5" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="18" customHeight="1"/>
+      <c r="A5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="12.75" customHeight="1">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="12.75" customHeight="1">
+      <c r="A7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="12.75" customHeight="1">
+      <c r="A8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="12.75" customHeight="1">
+      <c r="A9" t="s">
+        <v>65</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -1063,64 +1064,120 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="17.5" customWidth="1"/>
-    <col min="2" max="2" width="14.5" customWidth="1"/>
-    <col min="3" max="3" width="22.83203125" customWidth="1"/>
-    <col min="4" max="4" width="28.33203125" customWidth="1"/>
-    <col min="5" max="5" width="45.5" customWidth="1"/>
+    <col min="1" max="1" width="16.33203125" customWidth="1"/>
+    <col min="2" max="2" width="18.5" customWidth="1"/>
+    <col min="3" max="3" width="17.5" customWidth="1"/>
+    <col min="4" max="4" width="22.83203125" customWidth="1"/>
+    <col min="5" max="5" width="19.6640625" customWidth="1"/>
+    <col min="6" max="6" width="17.33203125" customWidth="1"/>
+    <col min="7" max="7" width="20" customWidth="1"/>
+    <col min="8" max="8" width="21" customWidth="1"/>
+    <col min="9" max="9" width="21.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="17.5" customHeight="1">
-      <c r="A1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
+    <row r="1" spans="1:7" s="12" customFormat="1">
+      <c r="A1" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="2" customFormat="1" ht="24">
+      <c r="A2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="D1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="133.75" customHeight="1">
-      <c r="A2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="13.25" customHeight="1"/>
-    <row r="4" spans="1:5" ht="13.25" customHeight="1"/>
-    <row r="5" spans="1:5" ht="13.25" customHeight="1"/>
-    <row r="6" spans="1:5" ht="13.25" customHeight="1"/>
-    <row r="7" spans="1:5" ht="13.25" customHeight="1"/>
-    <row r="8" spans="1:5" ht="13.25" customHeight="1"/>
-    <row r="9" spans="1:5" ht="13.25" customHeight="1"/>
+      <c r="G2" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="2" customFormat="1" ht="36">
+      <c r="A3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="24">
+      <c r="A4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="E4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>45</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -1131,100 +1188,307 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="28.83203125" customWidth="1"/>
-    <col min="3" max="3" width="70.1640625" customWidth="1"/>
-    <col min="4" max="4" width="72.83203125" customWidth="1"/>
-    <col min="5" max="5" width="22.83203125" customWidth="1"/>
-    <col min="6" max="6" width="19.6640625" customWidth="1"/>
-    <col min="7" max="7" width="17.33203125" customWidth="1"/>
-    <col min="8" max="8" width="20" customWidth="1"/>
-    <col min="9" max="9" width="21" customWidth="1"/>
-    <col min="10" max="10" width="21.6640625" customWidth="1"/>
+    <col min="2" max="2" width="23" customWidth="1"/>
+    <col min="3" max="3" width="22.33203125" customWidth="1"/>
+    <col min="4" max="4" width="38" customWidth="1"/>
+    <col min="5" max="5" width="26.6640625" customWidth="1"/>
+    <col min="6" max="6" width="31.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:7" ht="24">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="30" customHeight="1">
+      <c r="A2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" ht="12.75" customHeight="1">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="12.75" customHeight="1">
+      <c r="A4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="12.75" customHeight="1">
+      <c r="A5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="18.6640625" customWidth="1"/>
+    <col min="2" max="3" width="25" customWidth="1"/>
+    <col min="4" max="4" width="29.5" customWidth="1"/>
+    <col min="5" max="5" width="29.6640625" customWidth="1"/>
+    <col min="6" max="6" width="25.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" s="11" customFormat="1">
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+    </row>
+    <row r="2" spans="1:11" s="6" customFormat="1" ht="36">
+      <c r="A2" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="G2"/>
+      <c r="H2"/>
+      <c r="I2"/>
+      <c r="J2"/>
+    </row>
+    <row r="3" spans="1:11" s="6" customFormat="1" ht="24">
+      <c r="A3" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3"/>
+      <c r="D3" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="G3"/>
+      <c r="H3"/>
+      <c r="I3"/>
+      <c r="J3"/>
+      <c r="K3"/>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="1:11" ht="24">
+      <c r="A5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="2" max="2" width="13.1640625" customWidth="1"/>
+    <col min="3" max="4" width="21.33203125" customWidth="1"/>
+    <col min="5" max="5" width="22" customWidth="1"/>
+    <col min="6" max="6" width="21.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" s="10" customFormat="1">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="C1" s="9" t="s">
+      <c r="F1" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="D1" s="9" t="s">
+    </row>
+    <row r="2" spans="1:14" s="6" customFormat="1" ht="30" customHeight="1">
+      <c r="A2" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="E1" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="I1" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="J1" s="9" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="27" customHeight="1">
-      <c r="A2" s="9" t="s">
+      <c r="C2" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="I2" s="7"/>
+      <c r="J2"/>
+      <c r="K2"/>
+      <c r="L2"/>
+      <c r="M2"/>
+      <c r="N2"/>
+    </row>
+    <row r="3" spans="1:14" s="6" customFormat="1" ht="30" customHeight="1">
+      <c r="A3" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="E3" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="G2" t="s">
-        <v>51</v>
-      </c>
-      <c r="H2" t="s">
-        <v>52</v>
-      </c>
-      <c r="I2" s="9"/>
-      <c r="J2" s="8" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="24">
-      <c r="A3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="G3" t="s">
-        <v>51</v>
-      </c>
-      <c r="H3" t="s">
-        <v>52</v>
-      </c>
-      <c r="J3" s="8" t="s">
-        <v>55</v>
-      </c>
+      <c r="F3" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="G3"/>
+      <c r="H3"/>
+      <c r="I3"/>
+      <c r="J3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/app/tables/household/forms/household_new/household_new.xlsx
+++ b/app/tables/household/forms/household_new/household_new.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22202"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="0" windowWidth="23160" windowHeight="14700" activeTab="6"/>
+    <workbookView xWindow="1160" yWindow="0" windowWidth="23160" windowHeight="14700" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="85">
   <si>
     <t>type</t>
   </si>
@@ -274,6 +274,12 @@
   </si>
   <si>
     <t>Questions are asked to members of the household who are at least 5 years old.</t>
+  </si>
+  <si>
+    <t>buttonLabel</t>
+  </si>
+  <si>
+    <t>Record Location</t>
   </si>
 </sst>
 </file>
@@ -1188,10 +1194,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A6"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -1201,9 +1207,10 @@
     <col min="4" max="4" width="38" customWidth="1"/>
     <col min="5" max="5" width="26.6640625" customWidth="1"/>
     <col min="6" max="6" width="31.1640625" customWidth="1"/>
+    <col min="8" max="8" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="24">
+    <row r="1" spans="1:8" ht="24">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1225,8 +1232,11 @@
       <c r="G1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="30" customHeight="1">
+      <c r="H1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="30" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -1238,7 +1248,7 @@
       </c>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:7" ht="12.75" customHeight="1">
+    <row r="3" spans="1:8" ht="12.75" customHeight="1">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1249,7 +1259,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="12.75" customHeight="1">
+    <row r="4" spans="1:8" ht="12.75" customHeight="1">
       <c r="A4" t="s">
         <v>27</v>
       </c>
@@ -1263,7 +1273,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="12.75" customHeight="1">
+    <row r="5" spans="1:8" ht="12.75" customHeight="1">
       <c r="A5" t="s">
         <v>27</v>
       </c>
@@ -1277,7 +1287,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -1286,6 +1296,9 @@
       </c>
       <c r="D6" t="s">
         <v>12</v>
+      </c>
+      <c r="H6" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -1420,7 +1433,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>

--- a/app/tables/household/forms/household_new/household_new.xlsx
+++ b/app/tables/household/forms/household_new/household_new.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22202"/>
-  <workbookPr autoCompressPictures="0"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="0" windowWidth="23160" windowHeight="14700" activeTab="4"/>
+    <workbookView xWindow="1160" yWindow="0" windowWidth="23160" windowHeight="14700" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -162,9 +162,6 @@
     <t>auxillaryHash</t>
   </si>
   <si>
-    <t>'household_id='+escape(data('household_id'))</t>
-  </si>
-  <si>
     <t>hideInContents</t>
   </si>
   <si>
@@ -280,6 +277,9 @@
   </si>
   <si>
     <t>Record Location</t>
+  </si>
+  <si>
+    <t>'household_id='+encodeURIComponent(data('household_id'))</t>
   </si>
 </sst>
 </file>
@@ -397,7 +397,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -429,9 +429,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="68">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
@@ -806,22 +803,22 @@
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.6640625" customWidth="1"/>
-    <col min="2" max="2" width="17.5" customWidth="1"/>
-    <col min="3" max="3" width="51.6640625" customWidth="1"/>
+    <col min="1" max="1" width="20.6328125" customWidth="1"/>
+    <col min="2" max="2" width="17.453125" customWidth="1"/>
+    <col min="3" max="3" width="51.6328125" customWidth="1"/>
     <col min="4" max="4" width="38" customWidth="1"/>
-    <col min="5" max="5" width="31.33203125" customWidth="1"/>
-    <col min="6" max="6" width="12.83203125" customWidth="1"/>
+    <col min="5" max="5" width="31.36328125" customWidth="1"/>
+    <col min="6" max="6" width="12.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="11" customFormat="1" ht="12">
+    <row r="1" spans="1:12" s="11" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="11" t="s">
         <v>53</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>54</v>
       </c>
       <c r="C1" s="11" t="s">
         <v>0</v>
@@ -844,9 +841,9 @@
       <c r="K1" s="10"/>
       <c r="L1" s="10"/>
     </row>
-    <row r="2" spans="1:12" s="8" customFormat="1" ht="12">
+    <row r="2" spans="1:12" s="8" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H2" s="9"/>
       <c r="I2" s="9"/>
@@ -854,16 +851,16 @@
       <c r="K2" s="9"/>
       <c r="L2" s="9"/>
     </row>
-    <row r="3" spans="1:12" s="8" customFormat="1" ht="12">
+    <row r="3" spans="1:12" s="8" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="H3" s="9"/>
       <c r="I3" s="9"/>
       <c r="J3" s="9"/>
       <c r="K3" s="9"/>
       <c r="L3" s="9"/>
     </row>
-    <row r="4" spans="1:12" s="8" customFormat="1" ht="12">
+    <row r="4" spans="1:12" s="8" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H4" s="9"/>
       <c r="I4" s="9"/>
@@ -871,16 +868,16 @@
       <c r="K4" s="9"/>
       <c r="L4" s="9"/>
     </row>
-    <row r="5" spans="1:12" s="8" customFormat="1" ht="12">
+    <row r="5" spans="1:12" s="8" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="H5" s="9"/>
       <c r="I5" s="9"/>
       <c r="J5" s="9"/>
       <c r="K5" s="9"/>
       <c r="L5" s="9"/>
     </row>
-    <row r="6" spans="1:12" s="8" customFormat="1" ht="12">
+    <row r="6" spans="1:12" s="8" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H6" s="9"/>
       <c r="I6" s="9"/>
@@ -888,7 +885,7 @@
       <c r="K6" s="9"/>
       <c r="L6" s="9"/>
     </row>
-    <row r="7" spans="1:12" s="6" customFormat="1" ht="12">
+    <row r="7" spans="1:12" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="H7"/>
       <c r="I7"/>
       <c r="J7"/>
@@ -914,14 +911,14 @@
       <selection activeCell="A5" sqref="A5:C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.5" customWidth="1"/>
-    <col min="2" max="2" width="18.1640625" customWidth="1"/>
-    <col min="4" max="4" width="16.33203125" customWidth="1"/>
+    <col min="1" max="1" width="17.453125" customWidth="1"/>
+    <col min="2" max="2" width="18.1796875" customWidth="1"/>
+    <col min="4" max="4" width="16.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="12.75" customHeight="1">
+    <row r="1" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>28</v>
       </c>
@@ -935,7 +932,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="12.75" customHeight="1">
+    <row r="2" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -946,7 +943,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="12.75" customHeight="1">
+    <row r="3" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -975,14 +972,14 @@
       <selection activeCell="A9" sqref="A9:B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.5" customWidth="1"/>
-    <col min="2" max="2" width="24.1640625" customWidth="1"/>
-    <col min="3" max="3" width="25.1640625" customWidth="1"/>
+    <col min="1" max="1" width="15.453125" customWidth="1"/>
+    <col min="2" max="2" width="24.1796875" customWidth="1"/>
+    <col min="3" max="3" width="25.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18" customHeight="1">
+    <row r="1" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>34</v>
       </c>
@@ -993,7 +990,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="18" customHeight="1">
+    <row r="2" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -1001,7 +998,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="18" customHeight="1">
+    <row r="3" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -1009,7 +1006,7 @@
         <v>20130408</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="18" customHeight="1">
+    <row r="4" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -1017,7 +1014,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="18" customHeight="1">
+    <row r="5" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>32</v>
       </c>
@@ -1025,33 +1022,33 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="12.75" customHeight="1">
+    <row r="6" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>21</v>
       </c>
       <c r="C6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C7" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="12.75" customHeight="1">
-      <c r="A7" t="s">
+    <row r="8" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>69</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C8" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="12.75" customHeight="1">
-      <c r="A8" t="s">
-        <v>70</v>
-      </c>
-      <c r="C8" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="12.75" customHeight="1">
+    <row r="9" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B9" t="s">
         <v>23</v>
@@ -1072,35 +1069,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.33203125" customWidth="1"/>
-    <col min="2" max="2" width="18.5" customWidth="1"/>
-    <col min="3" max="3" width="17.5" customWidth="1"/>
-    <col min="4" max="4" width="22.83203125" customWidth="1"/>
-    <col min="5" max="5" width="19.6640625" customWidth="1"/>
-    <col min="6" max="6" width="17.33203125" customWidth="1"/>
+    <col min="1" max="1" width="16.36328125" customWidth="1"/>
+    <col min="2" max="2" width="18.453125" customWidth="1"/>
+    <col min="3" max="3" width="17.453125" customWidth="1"/>
+    <col min="4" max="4" width="22.81640625" customWidth="1"/>
+    <col min="5" max="5" width="19.6328125" customWidth="1"/>
+    <col min="6" max="6" width="17.36328125" customWidth="1"/>
     <col min="7" max="7" width="20" customWidth="1"/>
     <col min="8" max="8" width="21" customWidth="1"/>
-    <col min="9" max="9" width="21.6640625" customWidth="1"/>
+    <col min="9" max="9" width="21.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="12" customFormat="1">
+    <row r="1" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>47</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>48</v>
       </c>
       <c r="C1" s="11" t="s">
         <v>38</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E1" s="11" t="s">
         <v>39</v>
@@ -1112,18 +1109,18 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="2" customFormat="1" ht="24">
+    <row r="2" spans="1:7" s="2" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B2" t="s">
         <v>37</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>42</v>
@@ -1132,44 +1129,44 @@
         <v>43</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" s="2" customFormat="1" ht="36">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="2" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B3" t="s">
         <v>37</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E3" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="F3" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="F3" s="8" t="s">
-        <v>78</v>
-      </c>
       <c r="G3" s="7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="24">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B4" t="s">
         <v>37</v>
       </c>
       <c r="C4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E4" t="s">
         <v>42</v>
@@ -1177,8 +1174,8 @@
       <c r="F4" t="s">
         <v>43</v>
       </c>
-      <c r="G4" s="13" t="s">
-        <v>45</v>
+      <c r="G4" s="7" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -1196,21 +1193,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="23" customWidth="1"/>
-    <col min="3" max="3" width="22.33203125" customWidth="1"/>
+    <col min="3" max="3" width="22.36328125" customWidth="1"/>
     <col min="4" max="4" width="38" customWidth="1"/>
-    <col min="5" max="5" width="26.6640625" customWidth="1"/>
-    <col min="6" max="6" width="31.1640625" customWidth="1"/>
-    <col min="8" max="8" width="14.5" customWidth="1"/>
+    <col min="5" max="5" width="26.6328125" customWidth="1"/>
+    <col min="6" max="6" width="31.1796875" customWidth="1"/>
+    <col min="8" max="8" width="14.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="24">
+    <row r="1" spans="1:8" ht="25" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1230,13 +1227,13 @@
         <v>25</v>
       </c>
       <c r="G1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="30" customHeight="1">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -1248,7 +1245,7 @@
       </c>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:8" ht="12.75" customHeight="1">
+    <row r="3" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1259,7 +1256,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="12.75" customHeight="1">
+    <row r="4" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>27</v>
       </c>
@@ -1273,7 +1270,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="12.75" customHeight="1">
+    <row r="5" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>27</v>
       </c>
@@ -1287,7 +1284,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -1298,7 +1295,7 @@
         <v>12</v>
       </c>
       <c r="H6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -1320,16 +1317,16 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.6640625" customWidth="1"/>
+    <col min="1" max="1" width="18.6328125" customWidth="1"/>
     <col min="2" max="3" width="25" customWidth="1"/>
-    <col min="4" max="4" width="29.5" customWidth="1"/>
-    <col min="5" max="5" width="29.6640625" customWidth="1"/>
-    <col min="6" max="6" width="25.6640625" customWidth="1"/>
+    <col min="4" max="4" width="29.453125" customWidth="1"/>
+    <col min="5" max="5" width="29.6328125" customWidth="1"/>
+    <col min="6" max="6" width="25.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="11" customFormat="1">
+    <row r="1" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -1346,7 +1343,7 @@
         <v>35</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G1" s="10"/>
       <c r="H1" s="10"/>
@@ -1354,34 +1351,34 @@
       <c r="J1" s="10"/>
       <c r="K1" s="10"/>
     </row>
-    <row r="2" spans="1:11" s="6" customFormat="1" ht="36">
+    <row r="2" spans="1:11" s="6" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D2" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="E2" s="6" t="s">
         <v>79</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>80</v>
       </c>
       <c r="G2"/>
       <c r="H2"/>
       <c r="I2"/>
       <c r="J2"/>
     </row>
-    <row r="3" spans="1:11" s="6" customFormat="1" ht="24">
+    <row r="3" spans="1:11" s="6" customFormat="1" ht="25" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>37</v>
       </c>
       <c r="B3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C3"/>
       <c r="D3" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F3" s="6" t="s">
         <v>62</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>63</v>
       </c>
       <c r="G3"/>
       <c r="H3"/>
@@ -1389,12 +1386,12 @@
       <c r="J3"/>
       <c r="K3"/>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" ht="25" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>14</v>
@@ -1404,18 +1401,18 @@
       </c>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="1:11" ht="24">
+    <row r="5" spans="1:11" ht="25" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" t="s">
         <v>50</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D5" t="s">
-        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -1437,15 +1434,15 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.1640625" customWidth="1"/>
-    <col min="3" max="4" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="13.1796875" customWidth="1"/>
+    <col min="3" max="4" width="21.36328125" customWidth="1"/>
     <col min="5" max="5" width="22" customWidth="1"/>
-    <col min="6" max="6" width="21.83203125" customWidth="1"/>
+    <col min="6" max="6" width="21.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="10" customFormat="1">
+    <row r="1" spans="1:14" s="10" customFormat="1" ht="25" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -1459,21 +1456,21 @@
         <v>35</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F1" s="10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" s="6" customFormat="1" ht="30" customHeight="1">
-      <c r="A2" s="6" t="s">
-        <v>61</v>
-      </c>
       <c r="C2" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I2" s="7"/>
       <c r="J2"/>
@@ -1482,21 +1479,21 @@
       <c r="M2"/>
       <c r="N2"/>
     </row>
-    <row r="3" spans="1:14" s="6" customFormat="1" ht="30" customHeight="1">
+    <row r="3" spans="1:14" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>37</v>
       </c>
       <c r="B3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G3"/>
       <c r="H3"/>

--- a/app/tables/household/forms/household_new/household_new.xlsx
+++ b/app/tables/household/forms/household_new/household_new.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22202"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="0" windowWidth="23160" windowHeight="14700" activeTab="3"/>
+    <workbookView xWindow="1160" yWindow="0" windowWidth="23160" windowHeight="14700" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="85">
   <si>
     <t>type</t>
   </si>
@@ -216,9 +216,6 @@
     <t>Add House Member</t>
   </si>
   <si>
-    <t>TRUE</t>
-  </si>
-  <si>
     <t>instance_name</t>
   </si>
   <si>
@@ -280,6 +277,9 @@
   </si>
   <si>
     <t>'household_id='+encodeURIComponent(data('household_id'))</t>
+  </si>
+  <si>
+    <t>required</t>
   </si>
 </sst>
 </file>
@@ -397,7 +397,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -429,6 +429,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="68">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
@@ -803,17 +806,17 @@
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="20.6328125" customWidth="1"/>
-    <col min="2" max="2" width="17.453125" customWidth="1"/>
-    <col min="3" max="3" width="51.6328125" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" customWidth="1"/>
+    <col min="2" max="2" width="17.5" customWidth="1"/>
+    <col min="3" max="3" width="51.6640625" customWidth="1"/>
     <col min="4" max="4" width="38" customWidth="1"/>
-    <col min="5" max="5" width="31.36328125" customWidth="1"/>
-    <col min="6" max="6" width="12.81640625" customWidth="1"/>
+    <col min="5" max="5" width="31.33203125" customWidth="1"/>
+    <col min="6" max="6" width="12.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="11" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="11" customFormat="1" ht="12">
       <c r="A1" s="11" t="s">
         <v>52</v>
       </c>
@@ -841,7 +844,7 @@
       <c r="K1" s="10"/>
       <c r="L1" s="10"/>
     </row>
-    <row r="2" spans="1:12" s="8" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" s="8" customFormat="1" ht="12">
       <c r="A2" s="8" t="s">
         <v>54</v>
       </c>
@@ -851,14 +854,14 @@
       <c r="K2" s="9"/>
       <c r="L2" s="9"/>
     </row>
-    <row r="3" spans="1:12" s="8" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" s="8" customFormat="1" ht="12">
       <c r="H3" s="9"/>
       <c r="I3" s="9"/>
       <c r="J3" s="9"/>
       <c r="K3" s="9"/>
       <c r="L3" s="9"/>
     </row>
-    <row r="4" spans="1:12" s="8" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" s="8" customFormat="1" ht="12">
       <c r="A4" s="8" t="s">
         <v>55</v>
       </c>
@@ -868,14 +871,14 @@
       <c r="K4" s="9"/>
       <c r="L4" s="9"/>
     </row>
-    <row r="5" spans="1:12" s="8" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" s="8" customFormat="1" ht="12">
       <c r="H5" s="9"/>
       <c r="I5" s="9"/>
       <c r="J5" s="9"/>
       <c r="K5" s="9"/>
       <c r="L5" s="9"/>
     </row>
-    <row r="6" spans="1:12" s="8" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" s="8" customFormat="1" ht="12">
       <c r="A6" s="8" t="s">
         <v>56</v>
       </c>
@@ -885,7 +888,7 @@
       <c r="K6" s="9"/>
       <c r="L6" s="9"/>
     </row>
-    <row r="7" spans="1:12" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" s="6" customFormat="1" ht="12">
       <c r="H7"/>
       <c r="I7"/>
       <c r="J7"/>
@@ -911,14 +914,14 @@
       <selection activeCell="A5" sqref="A5:C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="17.453125" customWidth="1"/>
-    <col min="2" max="2" width="18.1796875" customWidth="1"/>
-    <col min="4" max="4" width="16.36328125" customWidth="1"/>
+    <col min="1" max="1" width="17.5" customWidth="1"/>
+    <col min="2" max="2" width="18.1640625" customWidth="1"/>
+    <col min="4" max="4" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="12.75" customHeight="1">
       <c r="A1" t="s">
         <v>28</v>
       </c>
@@ -932,7 +935,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="12.75" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -943,7 +946,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="12.75" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -972,14 +975,14 @@
       <selection activeCell="A9" sqref="A9:B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="15.453125" customWidth="1"/>
-    <col min="2" max="2" width="24.1796875" customWidth="1"/>
-    <col min="3" max="3" width="25.1796875" customWidth="1"/>
+    <col min="1" max="1" width="15.5" customWidth="1"/>
+    <col min="2" max="2" width="24.1640625" customWidth="1"/>
+    <col min="3" max="3" width="25.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="18" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>34</v>
       </c>
@@ -990,7 +993,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="18" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -998,7 +1001,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="18" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -1006,7 +1009,7 @@
         <v>20130408</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="18" customHeight="1">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -1014,7 +1017,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="18" customHeight="1">
       <c r="A5" s="3" t="s">
         <v>32</v>
       </c>
@@ -1022,33 +1025,33 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="12.75" customHeight="1">
       <c r="A6" t="s">
         <v>21</v>
       </c>
       <c r="C6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="12.75" customHeight="1">
+      <c r="A7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="8" spans="1:3" ht="12.75" customHeight="1">
+      <c r="A8" t="s">
         <v>68</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C8" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>69</v>
-      </c>
-      <c r="C8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="12.75" customHeight="1">
       <c r="A9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B9" t="s">
         <v>23</v>
@@ -1069,24 +1072,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="16.36328125" customWidth="1"/>
-    <col min="2" max="2" width="18.453125" customWidth="1"/>
-    <col min="3" max="3" width="17.453125" customWidth="1"/>
-    <col min="4" max="4" width="22.81640625" customWidth="1"/>
-    <col min="5" max="5" width="19.6328125" customWidth="1"/>
-    <col min="6" max="6" width="17.36328125" customWidth="1"/>
+    <col min="1" max="1" width="16.33203125" customWidth="1"/>
+    <col min="2" max="2" width="18.5" customWidth="1"/>
+    <col min="3" max="3" width="17.5" customWidth="1"/>
+    <col min="4" max="4" width="22.83203125" customWidth="1"/>
+    <col min="5" max="5" width="19.6640625" customWidth="1"/>
+    <col min="6" max="6" width="17.33203125" customWidth="1"/>
     <col min="7" max="7" width="20" customWidth="1"/>
     <col min="8" max="8" width="21" customWidth="1"/>
-    <col min="9" max="9" width="21.6328125" customWidth="1"/>
+    <col min="9" max="9" width="21.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="12" customFormat="1">
       <c r="A1" s="10" t="s">
         <v>46</v>
       </c>
@@ -1109,18 +1112,18 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="2" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" s="2" customFormat="1" ht="36">
       <c r="A2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B2" t="s">
         <v>37</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>42</v>
@@ -1129,33 +1132,33 @@
         <v>43</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" s="2" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="2" customFormat="1" ht="36">
       <c r="A3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B3" t="s">
         <v>37</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E3" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="F3" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="F3" s="8" t="s">
-        <v>77</v>
-      </c>
       <c r="G3" s="7" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="37.5" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="36">
       <c r="A4" t="s">
         <v>49</v>
       </c>
@@ -1163,10 +1166,10 @@
         <v>37</v>
       </c>
       <c r="C4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E4" t="s">
         <v>42</v>
@@ -1175,7 +1178,7 @@
         <v>43</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -1191,23 +1194,23 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
     <col min="2" max="2" width="23" customWidth="1"/>
-    <col min="3" max="3" width="22.36328125" customWidth="1"/>
+    <col min="3" max="3" width="22.33203125" customWidth="1"/>
     <col min="4" max="4" width="38" customWidth="1"/>
-    <col min="5" max="5" width="26.6328125" customWidth="1"/>
-    <col min="6" max="6" width="31.1796875" customWidth="1"/>
-    <col min="8" max="8" width="14.453125" customWidth="1"/>
+    <col min="5" max="5" width="26.6640625" customWidth="1"/>
+    <col min="6" max="6" width="31.1640625" customWidth="1"/>
+    <col min="8" max="8" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="24">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1230,10 +1233,13 @@
         <v>45</v>
       </c>
       <c r="H1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+      <c r="I1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="30" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -1244,8 +1250,11 @@
         <v>24</v>
       </c>
       <c r="E2" s="1"/>
-    </row>
-    <row r="3" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="12.75" customHeight="1">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1256,7 +1265,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="12.75" customHeight="1">
       <c r="A4" t="s">
         <v>27</v>
       </c>
@@ -1270,7 +1279,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="12.75" customHeight="1">
       <c r="A5" t="s">
         <v>27</v>
       </c>
@@ -1284,7 +1293,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -1295,7 +1304,7 @@
         <v>12</v>
       </c>
       <c r="H6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -1317,16 +1326,16 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="18.6328125" customWidth="1"/>
+    <col min="1" max="1" width="18.6640625" customWidth="1"/>
     <col min="2" max="3" width="25" customWidth="1"/>
-    <col min="4" max="4" width="29.453125" customWidth="1"/>
-    <col min="5" max="5" width="29.6328125" customWidth="1"/>
-    <col min="6" max="6" width="25.6328125" customWidth="1"/>
+    <col min="4" max="4" width="29.5" customWidth="1"/>
+    <col min="5" max="5" width="29.6640625" customWidth="1"/>
+    <col min="6" max="6" width="25.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="11" customFormat="1">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -1351,27 +1360,27 @@
       <c r="J1" s="10"/>
       <c r="K1" s="10"/>
     </row>
-    <row r="2" spans="1:11" s="6" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" s="6" customFormat="1" ht="36">
       <c r="A2" s="6" t="s">
         <v>60</v>
       </c>
       <c r="D2" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="E2" s="6" t="s">
         <v>78</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>79</v>
       </c>
       <c r="G2"/>
       <c r="H2"/>
       <c r="I2"/>
       <c r="J2"/>
     </row>
-    <row r="3" spans="1:11" s="6" customFormat="1" ht="25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" s="6" customFormat="1" ht="24">
       <c r="A3" s="6" t="s">
         <v>37</v>
       </c>
       <c r="B3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C3"/>
       <c r="D3" s="6" t="s">
@@ -1386,7 +1395,7 @@
       <c r="J3"/>
       <c r="K3"/>
     </row>
-    <row r="4" spans="1:11" ht="25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11">
       <c r="A4" t="s">
         <v>27</v>
       </c>
@@ -1401,9 +1410,9 @@
       </c>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="1:11" ht="25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="24">
       <c r="A5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B5" t="s">
         <v>49</v>
@@ -1431,18 +1440,18 @@
   <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="13.1796875" customWidth="1"/>
-    <col min="3" max="4" width="21.36328125" customWidth="1"/>
+    <col min="2" max="2" width="13.1640625" customWidth="1"/>
+    <col min="3" max="4" width="21.33203125" customWidth="1"/>
     <col min="5" max="5" width="22" customWidth="1"/>
-    <col min="6" max="6" width="21.81640625" customWidth="1"/>
+    <col min="6" max="6" width="21.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="10" customFormat="1" ht="25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" s="10" customFormat="1">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -1462,16 +1471,18 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" s="6" customFormat="1" ht="30" customHeight="1">
       <c r="A2" s="6" t="s">
         <v>60</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>80</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
       <c r="I2" s="7"/>
       <c r="J2"/>
       <c r="K2"/>
@@ -1479,21 +1490,21 @@
       <c r="M2"/>
       <c r="N2"/>
     </row>
-    <row r="3" spans="1:14" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" s="6" customFormat="1" ht="30" customHeight="1">
       <c r="A3" s="6" t="s">
         <v>37</v>
       </c>
       <c r="B3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>63</v>
+        <v>80</v>
+      </c>
+      <c r="E3" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="F3" s="13" t="b">
+        <v>1</v>
       </c>
       <c r="G3"/>
       <c r="H3"/>
